--- a/result/gr25_02_simulated/details.xlsx
+++ b/result/gr25_02_simulated/details.xlsx
@@ -570,73 +570,73 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2575745582580566</v>
+        <v>0.2130799293518066</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>30.39997415867583</v>
+        <v>28.81181534514144</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0007167998945411173</v>
+        <v>0.0007362173698933311</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0006498381643755671</v>
+        <v>0.0006678772555743052</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0006498381643755671</v>
+        <v>0.0006678772555743052</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0006498381643755671</v>
+        <v>0.0006678772555743052</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0006498381643755671</v>
+        <v>0.0006678772555743052</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0006463075382807676</v>
+        <v>0.0006678772555743052</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0006463075382807676</v>
+        <v>0.0006678772555743052</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0006463075382807676</v>
+        <v>0.0006552036646193739</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0006463075382807676</v>
+        <v>0.0006552036646193739</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0006463075382807676</v>
+        <v>0.0006215379676855998</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0006303350776050077</v>
+        <v>0.0006214602756801723</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0006276734707860572</v>
+        <v>0.0006214602756801723</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0006276734707860572</v>
+        <v>0.0006210546309013405</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0006191486517820688</v>
+        <v>0.0005960337638094946</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0006146409799571894</v>
+        <v>0.0005960337638094946</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0006146409799571894</v>
+        <v>0.0005925026955808834</v>
       </c>
       <c r="V2" t="n">
-        <v>0.0006099742829537432</v>
+        <v>0.0005805270797346169</v>
       </c>
       <c r="W2" t="n">
-        <v>0.0006050028197661733</v>
+        <v>0.0005702430170923889</v>
       </c>
       <c r="X2" t="n">
-        <v>0.0005956069299679643</v>
+        <v>0.0005664384256839151</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.0005925920888630766</v>
+        <v>0.0005616338273906712</v>
       </c>
     </row>
     <row r="3">
@@ -649,73 +649,73 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2449874877929688</v>
+        <v>0.2110869884490967</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>29.16198464334047</v>
+        <v>28.98144235386644</v>
       </c>
       <c r="F3" t="n">
         <v>0.0007362173698933311</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0006728250299106875</v>
+        <v>0.0006949423357850833</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0006728250299106875</v>
+        <v>0.0006766368367003506</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0006728250299106875</v>
+        <v>0.0006766368367003506</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0006686963192740107</v>
+        <v>0.0006266364331577898</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0006686963192740107</v>
+        <v>0.0006266364331577898</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0006369322753613714</v>
+        <v>0.0006266364331577898</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0006369322753613714</v>
+        <v>0.0006266364331577898</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0006351935862609133</v>
+        <v>0.0006266364331577898</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0006351935862609133</v>
+        <v>0.0006137435101347228</v>
       </c>
       <c r="P3" t="n">
-        <v>0.0006351935862609133</v>
+        <v>0.0005976461672007483</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0006141046078359365</v>
+        <v>0.0005976461672007483</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0006006009962880785</v>
+        <v>0.0005976461672007483</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0006006009962880785</v>
+        <v>0.0005976461672007483</v>
       </c>
       <c r="T3" t="n">
-        <v>0.0006006009962880785</v>
+        <v>0.0005976461672007483</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0006006009962880785</v>
+        <v>0.0005976461672007483</v>
       </c>
       <c r="V3" t="n">
-        <v>0.0005858247545171644</v>
+        <v>0.0005796493748288302</v>
       </c>
       <c r="W3" t="n">
-        <v>0.000578230814717847</v>
+        <v>0.0005796493748288302</v>
       </c>
       <c r="X3" t="n">
-        <v>0.0005726616174538329</v>
+        <v>0.0005675286089043292</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.0005684597396362664</v>
+        <v>0.0005649403967615289</v>
       </c>
     </row>
     <row r="4">
@@ -728,73 +728,73 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2679994106292725</v>
+        <v>0.2112858295440674</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>29.21222857398607</v>
+        <v>28.77917017203981</v>
       </c>
       <c r="F4" t="n">
         <v>0.0007362173698933311</v>
       </c>
       <c r="G4" t="n">
-        <v>0.000640799324815607</v>
+        <v>0.0007362173698933311</v>
       </c>
       <c r="H4" t="n">
-        <v>0.000640799324815607</v>
+        <v>0.0006864051191014704</v>
       </c>
       <c r="I4" t="n">
-        <v>0.000640799324815607</v>
+        <v>0.0006743744431499749</v>
       </c>
       <c r="J4" t="n">
-        <v>0.000640799324815607</v>
+        <v>0.0006296718626932314</v>
       </c>
       <c r="K4" t="n">
-        <v>0.000640799324815607</v>
+        <v>0.0006296718626932314</v>
       </c>
       <c r="L4" t="n">
-        <v>0.000640799324815607</v>
+        <v>0.0005856721149307188</v>
       </c>
       <c r="M4" t="n">
-        <v>0.000640799324815607</v>
+        <v>0.0005856721149307188</v>
       </c>
       <c r="N4" t="n">
-        <v>0.000640799324815607</v>
+        <v>0.0005856721149307188</v>
       </c>
       <c r="O4" t="n">
-        <v>0.000640799324815607</v>
+        <v>0.0005856721149307188</v>
       </c>
       <c r="P4" t="n">
-        <v>0.000640799324815607</v>
+        <v>0.0005856721149307188</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.000640799324815607</v>
+        <v>0.0005856721149307188</v>
       </c>
       <c r="R4" t="n">
-        <v>0.0006229681338527635</v>
+        <v>0.0005856721149307188</v>
       </c>
       <c r="S4" t="n">
-        <v>0.000616865688850816</v>
+        <v>0.0005767475458432153</v>
       </c>
       <c r="T4" t="n">
-        <v>0.0006048787029447278</v>
+        <v>0.0005767475458432153</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0005909046005134915</v>
+        <v>0.0005736662324977824</v>
       </c>
       <c r="V4" t="n">
-        <v>0.0005812664606261913</v>
+        <v>0.0005729544659694248</v>
       </c>
       <c r="W4" t="n">
-        <v>0.0005754686416778559</v>
+        <v>0.0005683373183443077</v>
       </c>
       <c r="X4" t="n">
-        <v>0.0005713529646329749</v>
+        <v>0.000561302373695943</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.000569439153489007</v>
+        <v>0.000560997469240542</v>
       </c>
     </row>
     <row r="5">
@@ -807,73 +807,73 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2740035057067871</v>
+        <v>0.2194716930389404</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>28.67185009371678</v>
+        <v>29.15147549329231</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0007298198607940786</v>
+        <v>0.0007362173698933311</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0006893507671349729</v>
+        <v>0.0006915434444275086</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0006893507671349729</v>
+        <v>0.0006915434444275086</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0006893507671349729</v>
+        <v>0.0006915434444275086</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0006622412910320406</v>
+        <v>0.0006915434444275086</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0006622412910320406</v>
+        <v>0.0006915434444275086</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0006517791453062816</v>
+        <v>0.0006743890230094545</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0006517791453062816</v>
+        <v>0.0006515543230889093</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0006517791453062816</v>
+        <v>0.0006483245677867897</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0006416302607750609</v>
+        <v>0.0006331498360020248</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0006157268567526345</v>
+        <v>0.0006331498360020248</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0006038605149680226</v>
+        <v>0.0006169438120222583</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0005985135843187088</v>
+        <v>0.0006082515284678837</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0005985135843187088</v>
+        <v>0.0006075429253827886</v>
       </c>
       <c r="T5" t="n">
-        <v>0.0005865061873639567</v>
+        <v>0.0005787665669873288</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0005818455328656651</v>
+        <v>0.0005787665669873288</v>
       </c>
       <c r="V5" t="n">
-        <v>0.000578907719931376</v>
+        <v>0.0005787665669873288</v>
       </c>
       <c r="W5" t="n">
-        <v>0.000562914034236603</v>
+        <v>0.0005752133275916215</v>
       </c>
       <c r="X5" t="n">
-        <v>0.000562914034236603</v>
+        <v>0.0005706487160214715</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.0005589054599165064</v>
+        <v>0.0005682548829101813</v>
       </c>
     </row>
     <row r="6">
@@ -886,73 +886,73 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3413968086242676</v>
+        <v>0.2219798564910889</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>29.32667368538387</v>
+        <v>30.03565697046361</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0007274989039190179</v>
+        <v>0.0007357037579825835</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0006886605478176545</v>
+        <v>0.0006756655618497446</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0006783306198966114</v>
+        <v>0.0006646056647404421</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0006783306198966114</v>
+        <v>0.0006646056647404421</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0006783306198966114</v>
+        <v>0.0006646056647404421</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0006731234351409546</v>
+        <v>0.0006646056647404421</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0006731234351409546</v>
+        <v>0.0006646056647404421</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0006731234351409546</v>
+        <v>0.0006646056647404421</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0006731234351409546</v>
+        <v>0.0006541434011217249</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0006446469465663184</v>
+        <v>0.0006541434011217249</v>
       </c>
       <c r="P6" t="n">
-        <v>0.0006446469465663184</v>
+        <v>0.0006508968298264917</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.0006187107918639878</v>
+        <v>0.0006218724472918229</v>
       </c>
       <c r="R6" t="n">
-        <v>0.0006026933771923618</v>
+        <v>0.0006218724472918229</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0005992118416841789</v>
+        <v>0.0006218724472918229</v>
       </c>
       <c r="T6" t="n">
-        <v>0.0005992118416841789</v>
+        <v>0.0006218724472918229</v>
       </c>
       <c r="U6" t="n">
-        <v>0.000582503199743955</v>
+        <v>0.0006089878287543202</v>
       </c>
       <c r="V6" t="n">
-        <v>0.000574837615850238</v>
+        <v>0.0005989714527548707</v>
       </c>
       <c r="W6" t="n">
-        <v>0.000574837615850238</v>
+        <v>0.0005880386872435634</v>
       </c>
       <c r="X6" t="n">
-        <v>0.000574837615850238</v>
+        <v>0.0005880386872435634</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.0005716700523466639</v>
+        <v>0.0005854903892877894</v>
       </c>
     </row>
     <row r="7">
@@ -965,73 +965,73 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2483601570129395</v>
+        <v>0.2008368968963623</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>28.93416043417164</v>
+        <v>28.96464589875904</v>
       </c>
       <c r="F7" t="n">
         <v>0.0007362173698933311</v>
       </c>
       <c r="G7" t="n">
-        <v>0.000675018604326244</v>
+        <v>0.0006898897610080963</v>
       </c>
       <c r="H7" t="n">
-        <v>0.000675018604326244</v>
+        <v>0.0006898897610080963</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0006589581972784833</v>
+        <v>0.0006445809587068374</v>
       </c>
       <c r="J7" t="n">
-        <v>0.000657900419457866</v>
+        <v>0.0006445809587068374</v>
       </c>
       <c r="K7" t="n">
-        <v>0.000657900419457866</v>
+        <v>0.0006445809587068374</v>
       </c>
       <c r="L7" t="n">
-        <v>0.000657900419457866</v>
+        <v>0.0006445809587068374</v>
       </c>
       <c r="M7" t="n">
-        <v>0.000657900419457866</v>
+        <v>0.0006445809587068374</v>
       </c>
       <c r="N7" t="n">
-        <v>0.000657900419457866</v>
+        <v>0.0006445809587068374</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0006497846634812485</v>
+        <v>0.0006312635624574034</v>
       </c>
       <c r="P7" t="n">
-        <v>0.0006497846634812485</v>
+        <v>0.0006152233257688841</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0006229110944549915</v>
+        <v>0.0006152233257688841</v>
       </c>
       <c r="R7" t="n">
-        <v>0.0006030086160565358</v>
+        <v>0.0006152233257688841</v>
       </c>
       <c r="S7" t="n">
-        <v>0.0006015875651007473</v>
+        <v>0.0006009370719071617</v>
       </c>
       <c r="T7" t="n">
-        <v>0.0005898494774922008</v>
+        <v>0.0006004209554164659</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0005782247048493451</v>
+        <v>0.0005912371654597301</v>
       </c>
       <c r="V7" t="n">
-        <v>0.0005704112779161303</v>
+        <v>0.0005768932786495266</v>
       </c>
       <c r="W7" t="n">
-        <v>0.000569768653746017</v>
+        <v>0.0005746194628148668</v>
       </c>
       <c r="X7" t="n">
-        <v>0.0005659236748214979</v>
+        <v>0.0005667296107469942</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.0005640187219136772</v>
+        <v>0.0005646129804826324</v>
       </c>
     </row>
     <row r="8">
@@ -1044,73 +1044,73 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2108099460601807</v>
+        <v>0.2489378452301025</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>29.79534281724773</v>
+        <v>28.37393961933412</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0007270122504217113</v>
+        <v>0.0007362173698933311</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0006809473317052673</v>
+        <v>0.0007362173698933311</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0006809473317052673</v>
+        <v>0.0006688379915143931</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0006809473317052673</v>
+        <v>0.0006688379915143931</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0006700394931467385</v>
+        <v>0.0006659569974699106</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0006645402550744002</v>
+        <v>0.0006659569974699106</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0006432438151689132</v>
+        <v>0.0006648234479981734</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0006432438151689132</v>
+        <v>0.0006468727413231856</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0006390328302156462</v>
+        <v>0.0006323454514170656</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0006390328302156462</v>
+        <v>0.0006323454514170656</v>
       </c>
       <c r="P8" t="n">
-        <v>0.0006231493750478973</v>
+        <v>0.0006175873950330292</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.0006162492480718326</v>
+        <v>0.0005910435067072473</v>
       </c>
       <c r="R8" t="n">
-        <v>0.0006054095127321175</v>
+        <v>0.0005910435067072473</v>
       </c>
       <c r="S8" t="n">
-        <v>0.0006023940750820668</v>
+        <v>0.0005831425226375042</v>
       </c>
       <c r="T8" t="n">
-        <v>0.0006023940750820668</v>
+        <v>0.0005791100778199525</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0005991586848368138</v>
+        <v>0.0005634714060556377</v>
       </c>
       <c r="V8" t="n">
-        <v>0.0005901896277122232</v>
+        <v>0.0005634714060556377</v>
       </c>
       <c r="W8" t="n">
-        <v>0.0005890937868175133</v>
+        <v>0.0005634714060556377</v>
       </c>
       <c r="X8" t="n">
-        <v>0.0005829175407493485</v>
+        <v>0.0005539670235583448</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.0005808059028703259</v>
+        <v>0.0005530982381936474</v>
       </c>
     </row>
     <row r="9">
@@ -1123,73 +1123,73 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2184185981750488</v>
+        <v>0.290672779083252</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>29.38576784346878</v>
+        <v>29.29229106684943</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0007362173698933311</v>
+        <v>0.0007221195941316113</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0006798333366347724</v>
+        <v>0.0007007931639723821</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0006793108250000625</v>
+        <v>0.0007007931639723821</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0006793108250000625</v>
+        <v>0.0006662518443520462</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0006491166552730905</v>
+        <v>0.0006662518443520462</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0006352800441735998</v>
+        <v>0.0006662518443520462</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0006352800441735998</v>
+        <v>0.0006662518443520462</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0006352800441735998</v>
+        <v>0.0006573641635329469</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0006352800441735998</v>
+        <v>0.0006573641635329469</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0006352800441735998</v>
+        <v>0.0006352158424606226</v>
       </c>
       <c r="P9" t="n">
-        <v>0.0006333614103901853</v>
+        <v>0.000619595567279379</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.0006290175002019064</v>
+        <v>0.000619595567279379</v>
       </c>
       <c r="R9" t="n">
-        <v>0.0006199957513895799</v>
+        <v>0.0006030259952790108</v>
       </c>
       <c r="S9" t="n">
-        <v>0.0006129452718581192</v>
+        <v>0.0006030259952790108</v>
       </c>
       <c r="T9" t="n">
-        <v>0.0005986274926208724</v>
+        <v>0.0006019641190567758</v>
       </c>
       <c r="U9" t="n">
-        <v>0.000595059569034552</v>
+        <v>0.0005951848149244206</v>
       </c>
       <c r="V9" t="n">
-        <v>0.000580366545548006</v>
+        <v>0.0005853354847700227</v>
       </c>
       <c r="W9" t="n">
-        <v>0.0005796614704260121</v>
+        <v>0.0005841023445775763</v>
       </c>
       <c r="X9" t="n">
-        <v>0.0005758662895959165</v>
+        <v>0.0005790397033194173</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.0005728219852528027</v>
+        <v>0.0005709998258645112</v>
       </c>
     </row>
     <row r="10">
@@ -1202,73 +1202,73 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2168238162994385</v>
+        <v>0.2472438812255859</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>28.68035286176564</v>
+        <v>29.34521307516115</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0007314779152081868</v>
+        <v>0.0007362173698933311</v>
       </c>
       <c r="G10" t="n">
-        <v>0.000725349901917049</v>
+        <v>0.0006910941110176844</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0006699856507847086</v>
+        <v>0.0006910941110176844</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0006699856507847086</v>
+        <v>0.000682868608346538</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0006599308871167979</v>
+        <v>0.000682868608346538</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0006599308871167979</v>
+        <v>0.0006525382891889245</v>
       </c>
       <c r="L10" t="n">
-        <v>0.00065922640652408</v>
+        <v>0.0006525382891889245</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0006317451331342524</v>
+        <v>0.0006525382891889245</v>
       </c>
       <c r="N10" t="n">
-        <v>0.0006317451331342524</v>
+        <v>0.0006356658704409131</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0006317451331342524</v>
+        <v>0.0006356658704409131</v>
       </c>
       <c r="P10" t="n">
-        <v>0.0006317451331342524</v>
+        <v>0.0006356658704409131</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.0006028327362672847</v>
+        <v>0.0006198215652463638</v>
       </c>
       <c r="R10" t="n">
-        <v>0.000583484466588188</v>
+        <v>0.0006198215652463638</v>
       </c>
       <c r="S10" t="n">
-        <v>0.000583484466588188</v>
+        <v>0.0006128199539581476</v>
       </c>
       <c r="T10" t="n">
-        <v>0.0005825205201159178</v>
+        <v>0.0006015765827024581</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0005723847099542639</v>
+        <v>0.0005940882775294492</v>
       </c>
       <c r="V10" t="n">
-        <v>0.0005709339038202509</v>
+        <v>0.0005787581277050406</v>
       </c>
       <c r="W10" t="n">
-        <v>0.0005651700207855296</v>
+        <v>0.0005787581277050406</v>
       </c>
       <c r="X10" t="n">
-        <v>0.0005624029595951353</v>
+        <v>0.0005720314439602563</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.0005590712058823711</v>
+        <v>0.0005720314439602563</v>
       </c>
     </row>
     <row r="11">
@@ -1281,73 +1281,73 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2194483280181885</v>
+        <v>0.2373812198638916</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>30.38107059532922</v>
+        <v>29.09600839112863</v>
       </c>
       <c r="F11" t="n">
         <v>0.0007362173698933311</v>
       </c>
       <c r="G11" t="n">
-        <v>0.00067630817867497</v>
+        <v>0.0007131213600923356</v>
       </c>
       <c r="H11" t="n">
-        <v>0.00067630817867497</v>
+        <v>0.0006891221997003618</v>
       </c>
       <c r="I11" t="n">
-        <v>0.00067630817867497</v>
+        <v>0.0006815108183548511</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0006553158943818727</v>
+        <v>0.0006550408121866497</v>
       </c>
       <c r="K11" t="n">
-        <v>0.000628320774697086</v>
+        <v>0.0006550408121866497</v>
       </c>
       <c r="L11" t="n">
-        <v>0.000628320774697086</v>
+        <v>0.0006550408121866497</v>
       </c>
       <c r="M11" t="n">
-        <v>0.000628320774697086</v>
+        <v>0.0006550408121866497</v>
       </c>
       <c r="N11" t="n">
-        <v>0.000628320774697086</v>
+        <v>0.0006550408121866497</v>
       </c>
       <c r="O11" t="n">
-        <v>0.000628320774697086</v>
+        <v>0.000650910653675468</v>
       </c>
       <c r="P11" t="n">
-        <v>0.000628320774697086</v>
+        <v>0.000650910653675468</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.0006184722663672774</v>
+        <v>0.0006295866164800543</v>
       </c>
       <c r="R11" t="n">
-        <v>0.0006184722663672774</v>
+        <v>0.0006039191574345961</v>
       </c>
       <c r="S11" t="n">
-        <v>0.0006184722663672774</v>
+        <v>0.0006039191574345961</v>
       </c>
       <c r="T11" t="n">
-        <v>0.0006184722663672774</v>
+        <v>0.0005859808912033545</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0006149614153604998</v>
+        <v>0.0005831964977429984</v>
       </c>
       <c r="V11" t="n">
-        <v>0.000606884258567658</v>
+        <v>0.0005767384396971443</v>
       </c>
       <c r="W11" t="n">
-        <v>0.0006008846143178661</v>
+        <v>0.0005767384396971443</v>
       </c>
       <c r="X11" t="n">
-        <v>0.0005963571093063725</v>
+        <v>0.0005718892715579599</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.0005922235983494973</v>
+        <v>0.0005671736528485113</v>
       </c>
     </row>
   </sheetData>

--- a/result/gr25_02_simulated/details.xlsx
+++ b/result/gr25_02_simulated/details.xlsx
@@ -570,73 +570,73 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2130799293518066</v>
+        <v>0.3800153732299805</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>28.81181534514144</v>
+        <v>41.70139439737795</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0007362173698933311</v>
+        <v>0.001419457622318641</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0006678772555743052</v>
+        <v>0.00121615936177821</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0006678772555743052</v>
+        <v>0.001118081889885234</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0006678772555743052</v>
+        <v>0.001066653389605538</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0006678772555743052</v>
+        <v>0.001048378160576709</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0006678772555743052</v>
+        <v>0.0009785300387264544</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0006678772555743052</v>
+        <v>0.0009502486708457281</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0006552036646193739</v>
+        <v>0.0009502486708457281</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0006552036646193739</v>
+        <v>0.0008956023769150044</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0006215379676855998</v>
+        <v>0.0008956023769150044</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0006214602756801723</v>
+        <v>0.0008631048866385359</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0006214602756801723</v>
+        <v>0.0008492332515253653</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0006210546309013405</v>
+        <v>0.0008492332515253653</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0005960337638094946</v>
+        <v>0.0008481882999216106</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0005960337638094946</v>
+        <v>0.0008377467491839508</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0005925026955808834</v>
+        <v>0.0008249981319727383</v>
       </c>
       <c r="V2" t="n">
-        <v>0.0005805270797346169</v>
+        <v>0.0008249981319727383</v>
       </c>
       <c r="W2" t="n">
-        <v>0.0005702430170923889</v>
+        <v>0.0008128926783114609</v>
       </c>
       <c r="X2" t="n">
-        <v>0.0005664384256839151</v>
+        <v>0.0008128926783114609</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.0005616338273906712</v>
+        <v>0.0008128926783114609</v>
       </c>
     </row>
     <row r="3">
@@ -649,73 +649,73 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2110869884490967</v>
+        <v>0.408970832824707</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>28.98144235386644</v>
+        <v>42.50879382253152</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0007362173698933311</v>
+        <v>0.001482084267898751</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0006949423357850833</v>
+        <v>0.001205380188338145</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0006766368367003506</v>
+        <v>0.001086320625943922</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0006766368367003506</v>
+        <v>0.001064625485181445</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0006266364331577898</v>
+        <v>0.001035177679680035</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0006266364331577898</v>
+        <v>0.0009871697737845416</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0006266364331577898</v>
+        <v>0.0009804911295697614</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0006266364331577898</v>
+        <v>0.0009689782429288444</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0006266364331577898</v>
+        <v>0.0009211604167707559</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0006137435101347228</v>
+        <v>0.0009157766578668172</v>
       </c>
       <c r="P3" t="n">
-        <v>0.0005976461672007483</v>
+        <v>0.0009002333556871457</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0005976461672007483</v>
+        <v>0.0008919045015109766</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0005976461672007483</v>
+        <v>0.000881267573710189</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0005976461672007483</v>
+        <v>0.0008706832969711614</v>
       </c>
       <c r="T3" t="n">
-        <v>0.0005976461672007483</v>
+        <v>0.0008681532635271341</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0005976461672007483</v>
+        <v>0.0008562495121876737</v>
       </c>
       <c r="V3" t="n">
-        <v>0.0005796493748288302</v>
+        <v>0.0008509697442718921</v>
       </c>
       <c r="W3" t="n">
-        <v>0.0005796493748288302</v>
+        <v>0.0008419029915435034</v>
       </c>
       <c r="X3" t="n">
-        <v>0.0005675286089043292</v>
+        <v>0.0008365974486657708</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.0005649403967615289</v>
+        <v>0.0008286314585288792</v>
       </c>
     </row>
     <row r="4">
@@ -728,73 +728,73 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2112858295440674</v>
+        <v>0.3300011157989502</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>28.77917017203981</v>
+        <v>40.59347726899614</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0007362173698933311</v>
+        <v>0.001482084267898751</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0007362173698933311</v>
+        <v>0.001258431128012374</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0006864051191014704</v>
+        <v>0.001094846752059726</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0006743744431499749</v>
+        <v>0.001045014103412016</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0006296718626932314</v>
+        <v>0.001012619121472746</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0006296718626932314</v>
+        <v>0.001012619121472746</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0005856721149307188</v>
+        <v>0.0009736425344691812</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0005856721149307188</v>
+        <v>0.0009148016490252218</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0005856721149307188</v>
+        <v>0.0008967113848651592</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0005856721149307188</v>
+        <v>0.0008654073886145762</v>
       </c>
       <c r="P4" t="n">
-        <v>0.0005856721149307188</v>
+        <v>0.0008654073886145762</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0005856721149307188</v>
+        <v>0.0008654073886145762</v>
       </c>
       <c r="R4" t="n">
-        <v>0.0005856721149307188</v>
+        <v>0.0008267856954004108</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0005767475458432153</v>
+        <v>0.0008267856954004108</v>
       </c>
       <c r="T4" t="n">
-        <v>0.0005767475458432153</v>
+        <v>0.0008267856954004108</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0005736662324977824</v>
+        <v>0.0008043867667372651</v>
       </c>
       <c r="V4" t="n">
-        <v>0.0005729544659694248</v>
+        <v>0.0008043867667372651</v>
       </c>
       <c r="W4" t="n">
-        <v>0.0005683373183443077</v>
+        <v>0.0008021256370968195</v>
       </c>
       <c r="X4" t="n">
-        <v>0.000561302373695943</v>
+        <v>0.0007912958531968057</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.000560997469240542</v>
+        <v>0.0007912958531968057</v>
       </c>
     </row>
     <row r="5">
@@ -807,73 +807,73 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2194716930389404</v>
+        <v>0.3659975528717041</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>29.15147549329231</v>
+        <v>41.78305646651825</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0007362173698933311</v>
+        <v>0.001429509560417592</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0006915434444275086</v>
+        <v>0.001189861407540581</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0006915434444275086</v>
+        <v>0.00117788667309219</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0006915434444275086</v>
+        <v>0.001106816708749912</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0006915434444275086</v>
+        <v>0.00106068569037872</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0006915434444275086</v>
+        <v>0.001050146826171159</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0006743890230094545</v>
+        <v>0.0009674830778740799</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0006515543230889093</v>
+        <v>0.0009622420407940026</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0006483245677867897</v>
+        <v>0.0008971902869502741</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0006331498360020248</v>
+        <v>0.0008948935950108761</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0006331498360020248</v>
+        <v>0.0008747076175007137</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0006169438120222583</v>
+        <v>0.0008448053606662496</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0006082515284678837</v>
+        <v>0.0008381547918192539</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0006075429253827886</v>
+        <v>0.0008381547918192539</v>
       </c>
       <c r="T5" t="n">
-        <v>0.0005787665669873288</v>
+        <v>0.0008381547918192539</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0005787665669873288</v>
+        <v>0.0008381547918192539</v>
       </c>
       <c r="V5" t="n">
-        <v>0.0005787665669873288</v>
+        <v>0.0008242546509987717</v>
       </c>
       <c r="W5" t="n">
-        <v>0.0005752133275916215</v>
+        <v>0.0008242546509987717</v>
       </c>
       <c r="X5" t="n">
-        <v>0.0005706487160214715</v>
+        <v>0.000820749128439207</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.0005682548829101813</v>
+        <v>0.0008144845315110768</v>
       </c>
     </row>
     <row r="6">
@@ -886,73 +886,73 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2219798564910889</v>
+        <v>0.350001335144043</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>30.03565697046361</v>
+        <v>40.95489048340278</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0007357037579825835</v>
+        <v>0.001482084267898751</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0006756655618497446</v>
+        <v>0.001252574983202144</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0006646056647404421</v>
+        <v>0.001111901477032265</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0006646056647404421</v>
+        <v>0.001042187793783017</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0006646056647404421</v>
+        <v>0.001042187793783017</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0006646056647404421</v>
+        <v>0.001005716092924672</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0006646056647404421</v>
+        <v>0.0009881591841851196</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0006646056647404421</v>
+        <v>0.0009624392537924234</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0006541434011217249</v>
+        <v>0.000934490545673592</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0006541434011217249</v>
+        <v>0.0009192648518211696</v>
       </c>
       <c r="P6" t="n">
-        <v>0.0006508968298264917</v>
+        <v>0.0009114766860675195</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.0006218724472918229</v>
+        <v>0.0008845394555320065</v>
       </c>
       <c r="R6" t="n">
-        <v>0.0006218724472918229</v>
+        <v>0.0008763642920680386</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0006218724472918229</v>
+        <v>0.0008233773534034678</v>
       </c>
       <c r="T6" t="n">
-        <v>0.0006218724472918229</v>
+        <v>0.0008233773534034678</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0006089878287543202</v>
+        <v>0.0008233773534034678</v>
       </c>
       <c r="V6" t="n">
-        <v>0.0005989714527548707</v>
+        <v>0.0008092374261901942</v>
       </c>
       <c r="W6" t="n">
-        <v>0.0005880386872435634</v>
+        <v>0.0008092374261901942</v>
       </c>
       <c r="X6" t="n">
-        <v>0.0005880386872435634</v>
+        <v>0.0007997894688520267</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.0005854903892877894</v>
+        <v>0.0007983409450955706</v>
       </c>
     </row>
     <row r="7">
@@ -965,73 +965,73 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2008368968963623</v>
+        <v>0.4639983177185059</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>28.96464589875904</v>
+        <v>40.3026086732516</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0007362173698933311</v>
+        <v>0.001482084267898751</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0006898897610080963</v>
+        <v>0.001194823165296413</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0006898897610080963</v>
+        <v>0.001108652265872566</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0006445809587068374</v>
+        <v>0.001044114228164593</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0006445809587068374</v>
+        <v>0.001007106897795964</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0006445809587068374</v>
+        <v>0.0009644470256586045</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0006445809587068374</v>
+        <v>0.0009020247088230131</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0006445809587068374</v>
+        <v>0.0009013729203995847</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0006445809587068374</v>
+        <v>0.0008693613866986377</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0006312635624574034</v>
+        <v>0.0008398947473746671</v>
       </c>
       <c r="P7" t="n">
-        <v>0.0006152233257688841</v>
+        <v>0.0008398947473746671</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0006152233257688841</v>
+        <v>0.0008398947473746671</v>
       </c>
       <c r="R7" t="n">
-        <v>0.0006152233257688841</v>
+        <v>0.0008362965580014295</v>
       </c>
       <c r="S7" t="n">
-        <v>0.0006009370719071617</v>
+        <v>0.0008290638022071395</v>
       </c>
       <c r="T7" t="n">
-        <v>0.0006004209554164659</v>
+        <v>0.0008111969689862924</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0005912371654597301</v>
+        <v>0.0008111969689862924</v>
       </c>
       <c r="V7" t="n">
-        <v>0.0005768932786495266</v>
+        <v>0.0007957125727421795</v>
       </c>
       <c r="W7" t="n">
-        <v>0.0005746194628148668</v>
+        <v>0.0007902290682199461</v>
       </c>
       <c r="X7" t="n">
-        <v>0.0005667296107469942</v>
+        <v>0.0007872350559161972</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.0005646129804826324</v>
+        <v>0.0007856259000633837</v>
       </c>
     </row>
     <row r="8">
@@ -1044,73 +1044,73 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2489378452301025</v>
+        <v>0.3989934921264648</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>28.37393961933412</v>
+        <v>40.1888487761189</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0007362173698933311</v>
+        <v>0.001414860653344698</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0007362173698933311</v>
+        <v>0.001186955360468314</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0006688379915143931</v>
+        <v>0.001137410728169429</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0006688379915143931</v>
+        <v>0.001089793266306784</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0006659569974699106</v>
+        <v>0.0009985174041095219</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0006659569974699106</v>
+        <v>0.0009692240764308546</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0006648234479981734</v>
+        <v>0.0009337282148615903</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0006468727413231856</v>
+        <v>0.0009194071214166439</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0006323454514170656</v>
+        <v>0.0009045941631004918</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0006323454514170656</v>
+        <v>0.0009045941631004918</v>
       </c>
       <c r="P8" t="n">
-        <v>0.0006175873950330292</v>
+        <v>0.0008831938041804288</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.0005910435067072473</v>
+        <v>0.0008455017208538544</v>
       </c>
       <c r="R8" t="n">
-        <v>0.0005910435067072473</v>
+        <v>0.0008330547659690218</v>
       </c>
       <c r="S8" t="n">
-        <v>0.0005831425226375042</v>
+        <v>0.0008306172793565305</v>
       </c>
       <c r="T8" t="n">
-        <v>0.0005791100778199525</v>
+        <v>0.0008061478350374248</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0005634714060556377</v>
+        <v>0.0008061478350374248</v>
       </c>
       <c r="V8" t="n">
-        <v>0.0005634714060556377</v>
+        <v>0.0007994945910642684</v>
       </c>
       <c r="W8" t="n">
-        <v>0.0005634714060556377</v>
+        <v>0.000791767331614247</v>
       </c>
       <c r="X8" t="n">
-        <v>0.0005539670235583448</v>
+        <v>0.0007834083582089453</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.0005530982381936474</v>
+        <v>0.0007834083582089453</v>
       </c>
     </row>
     <row r="9">
@@ -1123,73 +1123,73 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0.290672779083252</v>
+        <v>0.4199998378753662</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>29.29229106684943</v>
+        <v>41.23531659502623</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0007221195941316113</v>
+        <v>0.001482084267898751</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0007007931639723821</v>
+        <v>0.001227186079113327</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0007007931639723821</v>
+        <v>0.001133533785775148</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0006662518443520462</v>
+        <v>0.001114257433058895</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0006662518443520462</v>
+        <v>0.00106096290803818</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0006662518443520462</v>
+        <v>0.0009760901623953594</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0006662518443520462</v>
+        <v>0.0009760901623953594</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0006573641635329469</v>
+        <v>0.0009155600396585376</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0006573641635329469</v>
+        <v>0.0009155600396585376</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0006352158424606226</v>
+        <v>0.0009155600396585376</v>
       </c>
       <c r="P9" t="n">
-        <v>0.000619595567279379</v>
+        <v>0.0008943389402854208</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.000619595567279379</v>
+        <v>0.0008630139930225026</v>
       </c>
       <c r="R9" t="n">
-        <v>0.0006030259952790108</v>
+        <v>0.0008627184516832593</v>
       </c>
       <c r="S9" t="n">
-        <v>0.0006030259952790108</v>
+        <v>0.0008454026360785587</v>
       </c>
       <c r="T9" t="n">
-        <v>0.0006019641190567758</v>
+        <v>0.000840703418672778</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0005951848149244206</v>
+        <v>0.0008399777871298346</v>
       </c>
       <c r="V9" t="n">
-        <v>0.0005853354847700227</v>
+        <v>0.0008256173065408226</v>
       </c>
       <c r="W9" t="n">
-        <v>0.0005841023445775763</v>
+        <v>0.0008118286973277226</v>
       </c>
       <c r="X9" t="n">
-        <v>0.0005790397033194173</v>
+        <v>0.000810588072812532</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.0005709998258645112</v>
+        <v>0.0008038073410336496</v>
       </c>
     </row>
     <row r="10">
@@ -1202,73 +1202,73 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2472438812255859</v>
+        <v>0.349998950958252</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>29.34521307516115</v>
+        <v>40.32145678267443</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0007362173698933311</v>
+        <v>0.001458791654765865</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0006910941110176844</v>
+        <v>0.001216276843656992</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0006910941110176844</v>
+        <v>0.00113466043471599</v>
       </c>
       <c r="I10" t="n">
-        <v>0.000682868608346538</v>
+        <v>0.001061990265907244</v>
       </c>
       <c r="J10" t="n">
-        <v>0.000682868608346538</v>
+        <v>0.001029809739242654</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0006525382891889245</v>
+        <v>0.0009916263387956283</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0006525382891889245</v>
+        <v>0.0009445646693569918</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0006525382891889245</v>
+        <v>0.0009423668477601712</v>
       </c>
       <c r="N10" t="n">
-        <v>0.0006356658704409131</v>
+        <v>0.0009080063401603752</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0006356658704409131</v>
+        <v>0.000903424850859583</v>
       </c>
       <c r="P10" t="n">
-        <v>0.0006356658704409131</v>
+        <v>0.0008651260973563597</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.0006198215652463638</v>
+        <v>0.0008651260973563597</v>
       </c>
       <c r="R10" t="n">
-        <v>0.0006198215652463638</v>
+        <v>0.0008356869955482675</v>
       </c>
       <c r="S10" t="n">
-        <v>0.0006128199539581476</v>
+        <v>0.000828295973822084</v>
       </c>
       <c r="T10" t="n">
-        <v>0.0006015765827024581</v>
+        <v>0.0008054972648465141</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0005940882775294492</v>
+        <v>0.0008054972648465141</v>
       </c>
       <c r="V10" t="n">
-        <v>0.0005787581277050406</v>
+        <v>0.0008054972648465141</v>
       </c>
       <c r="W10" t="n">
-        <v>0.0005787581277050406</v>
+        <v>0.0007941633791962838</v>
       </c>
       <c r="X10" t="n">
-        <v>0.0005720314439602563</v>
+        <v>0.0007907142778933145</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.0005720314439602563</v>
+        <v>0.0007859933096037899</v>
       </c>
     </row>
     <row r="11">
@@ -1281,73 +1281,73 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2373812198638916</v>
+        <v>0.3409979343414307</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>29.09600839112863</v>
+        <v>42.12382639776479</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0007362173698933311</v>
+        <v>0.001482084267898751</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0007131213600923356</v>
+        <v>0.001225818594533986</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0006891221997003618</v>
+        <v>0.001107199958339983</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0006815108183548511</v>
+        <v>0.0009716175156113394</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0006550408121866497</v>
+        <v>0.0009374628563379308</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0006550408121866497</v>
+        <v>0.0009374628563379308</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0006550408121866497</v>
+        <v>0.0009374628563379308</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0006550408121866497</v>
+        <v>0.0009298460148008042</v>
       </c>
       <c r="N11" t="n">
-        <v>0.0006550408121866497</v>
+        <v>0.0009285560659384704</v>
       </c>
       <c r="O11" t="n">
-        <v>0.000650910653675468</v>
+        <v>0.0008847614379854943</v>
       </c>
       <c r="P11" t="n">
-        <v>0.000650910653675468</v>
+        <v>0.0008847614379854943</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.0006295866164800543</v>
+        <v>0.0008647706536492328</v>
       </c>
       <c r="R11" t="n">
-        <v>0.0006039191574345961</v>
+        <v>0.0008647706536492328</v>
       </c>
       <c r="S11" t="n">
-        <v>0.0006039191574345961</v>
+        <v>0.0008636799663276758</v>
       </c>
       <c r="T11" t="n">
-        <v>0.0005859808912033545</v>
+        <v>0.0008484660196850473</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0005831964977429984</v>
+        <v>0.0008382543265603341</v>
       </c>
       <c r="V11" t="n">
-        <v>0.0005767384396971443</v>
+        <v>0.00083158685391789</v>
       </c>
       <c r="W11" t="n">
-        <v>0.0005767384396971443</v>
+        <v>0.00083158685391789</v>
       </c>
       <c r="X11" t="n">
-        <v>0.0005718892715579599</v>
+        <v>0.0008280542560920829</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.0005671736528485113</v>
+        <v>0.0008211272202293329</v>
       </c>
     </row>
   </sheetData>
